--- a/Laporan Analisa Server.xlsx
+++ b/Laporan Analisa Server.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Berdasarkan Jenjang Pendidikan" sheetId="1" r:id="rId1"/>
-    <sheet name="Berdasarkan JK Diploma" sheetId="2" r:id="rId2"/>
+    <sheet name="Berdasarkan JK" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="55">
   <si>
     <t>A. FMIPA</t>
   </si>
@@ -151,13 +151,43 @@
   </si>
   <si>
     <t xml:space="preserve">  3. D3 Teknik Mesin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  4. D3 Metrologi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  5. D3 Teknik Kimia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  6. D3 Teknik Sipil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  7. D3 Teknik Sipil</t>
+  </si>
+  <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   2.Fisika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   3.Statistika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   4.Kimia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   5.Biologi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,8 +211,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -204,6 +242,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,7 +316,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -283,9 +327,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -293,6 +334,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -598,9 +651,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C80" sqref="C80"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,20 +680,20 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
     </row>
     <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -673,12 +726,12 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
@@ -726,12 +779,12 @@
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
@@ -749,12 +802,12 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
@@ -802,12 +855,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
@@ -855,20 +908,20 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
@@ -916,12 +969,12 @@
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -969,12 +1022,12 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
@@ -1022,12 +1075,12 @@
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
@@ -1045,12 +1098,12 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
     </row>
     <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
@@ -1083,12 +1136,12 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
@@ -1106,12 +1159,12 @@
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
     </row>
     <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
@@ -1129,20 +1182,20 @@
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="9"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
@@ -1190,12 +1243,12 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
     </row>
     <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
@@ -1243,12 +1296,12 @@
       </c>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="6" t="s">
+      <c r="A51" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
@@ -1296,12 +1349,12 @@
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="6" t="s">
+      <c r="A55" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9"/>
     </row>
     <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
@@ -1334,12 +1387,12 @@
       </c>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="6" t="s">
+      <c r="A58" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B58" s="6"/>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9"/>
     </row>
     <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
@@ -1357,12 +1410,12 @@
       </c>
     </row>
     <row r="60" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="6" t="s">
+      <c r="A60" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B60" s="6"/>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9"/>
     </row>
     <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
@@ -1380,12 +1433,12 @@
       </c>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="6" t="s">
+      <c r="A62" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
@@ -1403,12 +1456,12 @@
       </c>
     </row>
     <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B64" s="6"/>
-      <c r="C64" s="6"/>
-      <c r="D64" s="6"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9"/>
     </row>
     <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
@@ -1426,20 +1479,20 @@
       </c>
     </row>
     <row r="66" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="8"/>
-      <c r="C66" s="8"/>
-      <c r="D66" s="9"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="8"/>
     </row>
     <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="6" t="s">
+      <c r="A67" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B67" s="6"/>
-      <c r="C67" s="6"/>
-      <c r="D67" s="6"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
     </row>
     <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
@@ -1487,12 +1540,12 @@
       </c>
     </row>
     <row r="71" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="6" t="s">
+      <c r="A71" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B71" s="6"/>
-      <c r="C71" s="6"/>
-      <c r="D71" s="6"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
     </row>
     <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
@@ -1510,12 +1563,12 @@
       </c>
     </row>
     <row r="73" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="6" t="s">
+      <c r="A73" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B73" s="6"/>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
     </row>
     <row r="74" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
@@ -1533,12 +1586,12 @@
       </c>
     </row>
     <row r="75" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="6" t="s">
+      <c r="A75" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
     </row>
     <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
@@ -1556,20 +1609,20 @@
       </c>
     </row>
     <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B77" s="8"/>
-      <c r="C77" s="8"/>
-      <c r="D77" s="9"/>
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8"/>
     </row>
     <row r="78" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="6" t="s">
+      <c r="A78" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B78" s="6"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
     </row>
     <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
@@ -1617,12 +1670,12 @@
       </c>
     </row>
     <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="6" t="s">
+      <c r="A82" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B82" s="6"/>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
     </row>
     <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
@@ -1656,6 +1709,24 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A78:D78"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A67:D67"/>
+    <mergeCell ref="A71:D71"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A60:D60"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A51:D51"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A20:D20"/>
@@ -1669,24 +1740,6 @@
     <mergeCell ref="A21:D21"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A77:D77"/>
-    <mergeCell ref="A78:D78"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A67:D67"/>
-    <mergeCell ref="A71:D71"/>
-    <mergeCell ref="A73:D73"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1695,10 +1748,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1723,125 +1777,503 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:4" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="12"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" s="2">
-        <v>84</v>
-      </c>
-      <c r="C3" s="2">
-        <v>84</v>
-      </c>
-      <c r="D3" s="2">
-        <f t="shared" ref="D3" si="0">B3-C3</f>
-        <v>0</v>
-      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="2">
+        <v>84</v>
+      </c>
+      <c r="C4" s="2">
+        <v>84</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" ref="D4" si="0">B4-C4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>243</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>243</v>
       </c>
-      <c r="D4" s="2">
-        <f t="shared" ref="D4" si="1">B4-C4</f>
+      <c r="D5" s="2">
+        <f t="shared" ref="D5" si="1">B5-C5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="2">
-        <v>343</v>
-      </c>
-      <c r="C6" s="2">
-        <v>339</v>
-      </c>
-      <c r="D6" s="2">
-        <f t="shared" ref="D6:D7" si="2">B6-C6</f>
-        <v>4</v>
-      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2">
+        <v>343</v>
+      </c>
+      <c r="C7" s="2">
+        <v>339</v>
+      </c>
+      <c r="D7" s="2">
+        <f t="shared" ref="D7:D8" si="2">B7-C7</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B8" s="2">
         <v>116</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C8" s="2">
         <v>116</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D8" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="2">
-        <v>443</v>
-      </c>
-      <c r="C9" s="2">
-        <v>433</v>
-      </c>
-      <c r="D9" s="2">
-        <f t="shared" ref="D9:D10" si="3">B9-C9</f>
-        <v>10</v>
-      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="2">
+        <v>443</v>
+      </c>
+      <c r="C10" s="2">
+        <v>433</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" ref="D10:D11" si="3">B10-C10</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B11" s="2">
         <v>81</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C11" s="2">
         <v>80</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D11" s="2">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="2">
+        <v>148</v>
+      </c>
+      <c r="C13" s="2">
+        <v>144</v>
+      </c>
+      <c r="D13" s="2">
+        <f>ABS(B13-C13)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="2">
+        <v>96</v>
+      </c>
+      <c r="C14" s="2">
+        <v>96</v>
+      </c>
+      <c r="D14" s="2">
+        <f>ABS(B14-C14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="2">
+        <v>107</v>
+      </c>
+      <c r="C16" s="2">
+        <v>107</v>
+      </c>
+      <c r="D16" s="2">
+        <f>ABS(B16-C16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>180</v>
+      </c>
+      <c r="C17" s="2">
+        <v>180</v>
+      </c>
+      <c r="D17" s="2">
+        <f>ABS(B17-C17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="2">
+        <v>287</v>
+      </c>
+      <c r="C19" s="2">
+        <v>284</v>
+      </c>
+      <c r="D19" s="2">
+        <f>ABS(B19-C19)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2">
+        <v>183</v>
+      </c>
+      <c r="C20" s="2">
+        <v>182</v>
+      </c>
+      <c r="D20" s="2">
+        <f>ABS(B20-C20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="2">
+        <v>200</v>
+      </c>
+      <c r="C22" s="2">
+        <v>194</v>
+      </c>
+      <c r="D22" s="2">
+        <f>ABS(B22-C22)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="2">
+        <v>117</v>
+      </c>
+      <c r="C23" s="2">
+        <v>116</v>
+      </c>
+      <c r="D23" s="2">
+        <f>ABS(B23-C23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2">
+        <v>150</v>
+      </c>
+      <c r="C27" s="2">
+        <v>143</v>
+      </c>
+      <c r="D27" s="2">
+        <f>ABS(B27-C27)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2">
+        <v>305</v>
+      </c>
+      <c r="C28" s="2">
+        <v>303</v>
+      </c>
+      <c r="D28" s="2">
+        <f>ABS(B28-C28)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="2">
+        <v>213</v>
+      </c>
+      <c r="C30" s="2">
+        <v>204</v>
+      </c>
+      <c r="D30" s="2">
+        <f>ABS(B30-C30)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>234</v>
+      </c>
+      <c r="C31" s="2">
+        <v>232</v>
+      </c>
+      <c r="D31" s="2">
+        <f>ABS(B31-C31)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>173</v>
+      </c>
+      <c r="C33" s="2">
+        <v>169</v>
+      </c>
+      <c r="D33" s="2">
+        <f>ABS(B33-C33)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="2">
+        <v>456</v>
+      </c>
+      <c r="C34" s="2">
+        <v>455</v>
+      </c>
+      <c r="D34" s="2">
+        <f>ABS(B34-C34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2">
+        <v>141</v>
+      </c>
+      <c r="C36" s="2">
+        <v>138</v>
+      </c>
+      <c r="D36" s="2">
+        <f>ABS(B36-C36)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" s="2">
+        <v>313</v>
+      </c>
+      <c r="C37" s="2">
+        <v>312</v>
+      </c>
+      <c r="D37" s="2">
+        <f>ABS(B37-C37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="2">
+        <v>73</v>
+      </c>
+      <c r="C39" s="2">
+        <v>72</v>
+      </c>
+      <c r="D39" s="2">
+        <f>ABS(B39-C39)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="2">
+        <v>267</v>
+      </c>
+      <c r="C40" s="2">
+        <v>265</v>
+      </c>
+      <c r="D40" s="2">
+        <f>ABS(B40-C40)</f>
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Laporan Analisa Server.xlsx
+++ b/Laporan Analisa Server.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="15120" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="15120" windowHeight="7995" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tabel pembanding JP" sheetId="4" r:id="rId1"/>
     <sheet name="Rincian Missing data" sheetId="5" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="157">
   <si>
     <t>A. FMIPA</t>
   </si>
@@ -363,6 +364,129 @@
   </si>
   <si>
     <t>Manajemen Teknik</t>
+  </si>
+  <si>
+    <t>Jumlah</t>
+  </si>
+  <si>
+    <t>Jenis Kelamin</t>
+  </si>
+  <si>
+    <t>Jumlah dari data.its</t>
+  </si>
+  <si>
+    <t>S1 Fisika</t>
+  </si>
+  <si>
+    <t>S2 Matematika</t>
+  </si>
+  <si>
+    <t>D3 Statistika</t>
+  </si>
+  <si>
+    <t>S3 Statistika</t>
+  </si>
+  <si>
+    <t>S3 Kimia</t>
+  </si>
+  <si>
+    <t>Biologi</t>
+  </si>
+  <si>
+    <t>S2 Teknik Mesin</t>
+  </si>
+  <si>
+    <t>S3 Teknik Mesin</t>
+  </si>
+  <si>
+    <t>D3 Teknik Kimia</t>
+  </si>
+  <si>
+    <t>S1 Teknik Kimia</t>
+  </si>
+  <si>
+    <t>D3 Metrologi</t>
+  </si>
+  <si>
+    <t>S1 Teknik Fisika</t>
+  </si>
+  <si>
+    <t>S2 Teknik Fisika</t>
+  </si>
+  <si>
+    <t>S2 Teknik Industri</t>
+  </si>
+  <si>
+    <t>S3 Teknik Industri</t>
+  </si>
+  <si>
+    <t>Biomedika</t>
+  </si>
+  <si>
+    <t>S1 Teknik Material dan Metalurgi</t>
+  </si>
+  <si>
+    <t>S2 Teknik Material dan Metalurgi</t>
+  </si>
+  <si>
+    <t>S1 Manajemen Bisnis</t>
+  </si>
+  <si>
+    <t>S1 Teknik Multimedia dan Jaringan</t>
+  </si>
+  <si>
+    <t>D3 Teknik Sipil</t>
+  </si>
+  <si>
+    <t>D4 Teknik Sipil</t>
+  </si>
+  <si>
+    <t>S1 Teknik sipil</t>
+  </si>
+  <si>
+    <t>S2 Arsitektur</t>
+  </si>
+  <si>
+    <t>S3 Arsitektur</t>
+  </si>
+  <si>
+    <t>S3 Teknik Lingkungan</t>
+  </si>
+  <si>
+    <t>S2 Teknik Geomatika</t>
+  </si>
+  <si>
+    <t>S1 Perencanaan Wilayah dan Kota</t>
+  </si>
+  <si>
+    <t>S1 Teknik Geofisika</t>
+  </si>
+  <si>
+    <t>S1 Desain Interior</t>
+  </si>
+  <si>
+    <t>S1 Transportasi Laut</t>
+  </si>
+  <si>
+    <t>S3 Teknik Informatika</t>
+  </si>
+  <si>
+    <t>S1 Sistem Informasi</t>
+  </si>
+  <si>
+    <t>S2 Sistem Informasi</t>
+  </si>
+  <si>
+    <t>Laki-Laki</t>
+  </si>
+  <si>
+    <t>Perempuan</t>
+  </si>
+  <si>
+    <t>B. FTI</t>
+  </si>
+  <si>
+    <t>S2 Manajemen Teknik</t>
   </si>
 </sst>
 </file>
@@ -409,7 +533,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -428,8 +552,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -555,11 +709,72 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -586,13 +801,32 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -896,9 +1130,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2004,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B160"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="B161" sqref="B161"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -2024,13 +2258,13 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="20"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
+      <c r="A3" s="18">
         <v>11201</v>
       </c>
       <c r="B3" s="14">
@@ -2038,7 +2272,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="20">
+      <c r="A4" s="18">
         <v>11201</v>
       </c>
       <c r="B4" s="14">
@@ -2046,7 +2280,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <v>11201</v>
       </c>
       <c r="B5" s="14">
@@ -2054,7 +2288,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <v>11201</v>
       </c>
       <c r="B6" s="14">
@@ -2062,7 +2296,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <v>11201</v>
       </c>
       <c r="B7" s="14">
@@ -2070,7 +2304,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <v>11201</v>
       </c>
       <c r="B8" s="14">
@@ -2078,7 +2312,7 @@
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <v>11201</v>
       </c>
       <c r="B9" s="14">
@@ -2086,7 +2320,7 @@
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="20">
+      <c r="A10" s="18">
         <v>11201</v>
       </c>
       <c r="B10" s="14">
@@ -2094,13 +2328,13 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="20"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="20">
+      <c r="A12" s="18">
         <v>11301</v>
       </c>
       <c r="B12" s="14">
@@ -2108,7 +2342,7 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="20">
+      <c r="A13" s="18">
         <v>11301</v>
       </c>
       <c r="B13" s="14">
@@ -2116,13 +2350,13 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="20">
+      <c r="A15" s="18">
         <v>12100</v>
       </c>
       <c r="B15" s="14">
@@ -2130,7 +2364,7 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="20">
+      <c r="A16" s="18">
         <v>12100</v>
       </c>
       <c r="B16" s="14">
@@ -2138,7 +2372,7 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="20">
+      <c r="A17" s="18">
         <v>12100</v>
       </c>
       <c r="B17" s="14">
@@ -2146,7 +2380,7 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="20">
+      <c r="A18" s="18">
         <v>12100</v>
       </c>
       <c r="B18" s="14">
@@ -2154,13 +2388,13 @@
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="20"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="20">
+      <c r="A20" s="18">
         <v>13100</v>
       </c>
       <c r="B20" s="14">
@@ -2168,13 +2402,13 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="20">
+      <c r="A22" s="18">
         <v>13201</v>
       </c>
       <c r="B22" s="14">
@@ -2182,7 +2416,7 @@
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="20">
+      <c r="A23" s="18">
         <v>13201</v>
       </c>
       <c r="B23" s="14">
@@ -2190,13 +2424,13 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="20"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="20">
+      <c r="A25" s="18">
         <v>14100</v>
       </c>
       <c r="B25" s="14">
@@ -2204,7 +2438,7 @@
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="20">
+      <c r="A26" s="18">
         <v>14100</v>
       </c>
       <c r="B26" s="14">
@@ -2212,13 +2446,13 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="20"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="20">
+      <c r="A28" s="18">
         <v>14201</v>
       </c>
       <c r="B28" s="14">
@@ -2226,7 +2460,7 @@
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="20">
+      <c r="A29" s="18">
         <v>14201</v>
       </c>
       <c r="B29" s="14">
@@ -2234,7 +2468,7 @@
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="20">
+      <c r="A30" s="18">
         <v>14201</v>
       </c>
       <c r="B30" s="14">
@@ -2242,13 +2476,13 @@
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="20"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="20">
+      <c r="A32" s="18">
         <v>15100</v>
       </c>
       <c r="B32" s="14">
@@ -2256,7 +2490,7 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="20">
+      <c r="A33" s="18">
         <v>15100</v>
       </c>
       <c r="B33" s="14">
@@ -2264,13 +2498,13 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="20">
+      <c r="A35" s="18">
         <v>21030</v>
       </c>
       <c r="B35" s="14">
@@ -2278,13 +2512,13 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="19"/>
+      <c r="B36" s="20"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="20">
+      <c r="A37" s="18">
         <v>21100</v>
       </c>
       <c r="B37" s="14">
@@ -2292,13 +2526,13 @@
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B38" s="19"/>
+      <c r="B38" s="20"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="20">
+      <c r="A39" s="18">
         <v>22100</v>
       </c>
       <c r="B39" s="14">
@@ -2306,13 +2540,13 @@
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="19"/>
+      <c r="B40" s="20"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="20">
+      <c r="A41" s="18">
         <v>22201</v>
       </c>
       <c r="B41" s="14">
@@ -2320,13 +2554,13 @@
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="19"/>
+      <c r="B42" s="20"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="20">
+      <c r="A43" s="18">
         <v>22301</v>
       </c>
       <c r="B43" s="14">
@@ -2334,7 +2568,7 @@
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="20">
+      <c r="A44" s="18">
         <v>22301</v>
       </c>
       <c r="B44" s="14">
@@ -2342,13 +2576,13 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="18" t="s">
+      <c r="A45" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="19"/>
+      <c r="B45" s="20"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="20">
+      <c r="A46" s="18">
         <v>23201</v>
       </c>
       <c r="B46" s="14">
@@ -2356,7 +2590,7 @@
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="20">
+      <c r="A47" s="18">
         <v>23201</v>
       </c>
       <c r="B47" s="14">
@@ -2364,7 +2598,7 @@
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="20">
+      <c r="A48" s="18">
         <v>23201</v>
       </c>
       <c r="B48" s="14">
@@ -2372,7 +2606,7 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="20">
+      <c r="A49" s="18">
         <v>23201</v>
       </c>
       <c r="B49" s="14">
@@ -2380,7 +2614,7 @@
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="20">
+      <c r="A50" s="18">
         <v>23201</v>
       </c>
       <c r="B50" s="14">
@@ -2388,7 +2622,7 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="20">
+      <c r="A51" s="18">
         <v>23201</v>
       </c>
       <c r="B51" s="14">
@@ -2396,7 +2630,7 @@
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="20">
+      <c r="A52" s="18">
         <v>23201</v>
       </c>
       <c r="B52" s="14">
@@ -2404,7 +2638,7 @@
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="20">
+      <c r="A53" s="18">
         <v>23201</v>
       </c>
       <c r="B53" s="14">
@@ -2412,7 +2646,7 @@
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="20">
+      <c r="A54" s="18">
         <v>23201</v>
       </c>
       <c r="B54" s="14">
@@ -2420,7 +2654,7 @@
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="20">
+      <c r="A55" s="18">
         <v>23201</v>
       </c>
       <c r="B55" s="14">
@@ -2428,7 +2662,7 @@
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="20">
+      <c r="A56" s="18">
         <v>23201</v>
       </c>
       <c r="B56" s="14">
@@ -2436,7 +2670,7 @@
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="20">
+      <c r="A57" s="18">
         <v>23201</v>
       </c>
       <c r="B57" s="14">
@@ -2444,13 +2678,13 @@
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="18" t="s">
+      <c r="A58" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B58" s="19"/>
+      <c r="B58" s="20"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="20">
+      <c r="A59" s="18">
         <v>23301</v>
       </c>
       <c r="B59" s="14">
@@ -2458,13 +2692,13 @@
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="18" t="s">
+      <c r="A60" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B60" s="19"/>
+      <c r="B60" s="20"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="20">
+      <c r="A61" s="18">
         <v>25100</v>
       </c>
       <c r="B61" s="14">
@@ -2472,13 +2706,13 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="18" t="s">
+      <c r="A62" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B62" s="19"/>
+      <c r="B62" s="20"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="20">
+      <c r="A63" s="18">
         <v>31100</v>
       </c>
       <c r="B63" s="14">
@@ -2486,13 +2720,13 @@
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="18" t="s">
+      <c r="A64" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="19"/>
+      <c r="B64" s="20"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="20">
+      <c r="A65" s="18">
         <v>31201</v>
       </c>
       <c r="B65" s="14">
@@ -2500,7 +2734,7 @@
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="20">
+      <c r="A66" s="18">
         <v>31201</v>
       </c>
       <c r="B66" s="14">
@@ -2508,7 +2742,7 @@
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="20">
+      <c r="A67" s="18">
         <v>31201</v>
       </c>
       <c r="B67" s="14">
@@ -2516,13 +2750,13 @@
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="18" t="s">
+      <c r="A68" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="B68" s="19"/>
+      <c r="B68" s="20"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="20">
+      <c r="A69" s="18">
         <v>31301</v>
       </c>
       <c r="B69" s="14">
@@ -2530,13 +2764,13 @@
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="18" t="s">
+      <c r="A70" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B70" s="19"/>
+      <c r="B70" s="20"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="20">
+      <c r="A71" s="18">
         <v>32100</v>
       </c>
       <c r="B71" s="14">
@@ -2544,7 +2778,7 @@
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="20">
+      <c r="A72" s="18">
         <v>32100</v>
       </c>
       <c r="B72" s="14">
@@ -2552,7 +2786,7 @@
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="20">
+      <c r="A73" s="18">
         <v>32111</v>
       </c>
       <c r="B73" s="14">
@@ -2560,13 +2794,13 @@
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="B74" s="19"/>
+      <c r="B74" s="20"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="20">
+      <c r="A75" s="18">
         <v>33100</v>
       </c>
       <c r="B75" s="14">
@@ -2574,7 +2808,7 @@
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="20">
+      <c r="A76" s="18">
         <v>33100</v>
       </c>
       <c r="B76" s="14">
@@ -2582,13 +2816,13 @@
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="18" t="s">
+      <c r="A77" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="19"/>
+      <c r="B77" s="20"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="20">
+      <c r="A78" s="18">
         <v>33202</v>
       </c>
       <c r="B78" s="14">
@@ -2596,13 +2830,13 @@
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="18" t="s">
+      <c r="A79" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="B79" s="19"/>
+      <c r="B79" s="20"/>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="20">
+      <c r="A80" s="18">
         <v>34100</v>
       </c>
       <c r="B80" s="14">
@@ -2610,7 +2844,7 @@
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="20">
+      <c r="A81" s="18">
         <v>34100</v>
       </c>
       <c r="B81" s="14">
@@ -2618,7 +2852,7 @@
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="20">
+      <c r="A82" s="18">
         <v>34100</v>
       </c>
       <c r="B82" s="14">
@@ -2626,7 +2860,7 @@
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="20">
+      <c r="A83" s="18">
         <v>34100</v>
       </c>
       <c r="B83" s="14">
@@ -2634,7 +2868,7 @@
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="20">
+      <c r="A84" s="18">
         <v>34100</v>
       </c>
       <c r="B84" s="14">
@@ -2642,7 +2876,7 @@
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="20">
+      <c r="A85" s="18">
         <v>34100</v>
       </c>
       <c r="B85" s="14">
@@ -2650,7 +2884,7 @@
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="20">
+      <c r="A86" s="18">
         <v>34100</v>
       </c>
       <c r="B86" s="14">
@@ -2658,13 +2892,13 @@
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="18" t="s">
+      <c r="A87" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="B87" s="19"/>
+      <c r="B87" s="20"/>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="20">
+      <c r="A88" s="18">
         <v>35100</v>
       </c>
       <c r="B88" s="14">
@@ -2672,13 +2906,13 @@
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="18" t="s">
+      <c r="A89" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="B89" s="19"/>
+      <c r="B89" s="20"/>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="20">
+      <c r="A90" s="18">
         <v>41100</v>
       </c>
       <c r="B90" s="14">
@@ -2686,7 +2920,7 @@
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="20">
+      <c r="A91" s="18">
         <v>41100</v>
       </c>
       <c r="B91" s="14">
@@ -2694,7 +2928,7 @@
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="20">
+      <c r="A92" s="18">
         <v>41100</v>
       </c>
       <c r="B92" s="14">
@@ -2702,7 +2936,7 @@
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="20">
+      <c r="A93" s="18">
         <v>41100</v>
       </c>
       <c r="B93" s="14">
@@ -2710,7 +2944,7 @@
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="20">
+      <c r="A94" s="18">
         <v>41100</v>
       </c>
       <c r="B94" s="14">
@@ -2718,7 +2952,7 @@
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="20">
+      <c r="A95" s="18">
         <v>41100</v>
       </c>
       <c r="B95" s="14">
@@ -2726,13 +2960,13 @@
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="18" t="s">
+      <c r="A96" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B96" s="19"/>
+      <c r="B96" s="20"/>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="20">
+      <c r="A97" s="18">
         <v>41201</v>
       </c>
       <c r="B97" s="14">
@@ -2740,7 +2974,7 @@
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="20">
+      <c r="A98" s="18">
         <v>41203</v>
       </c>
       <c r="B98" s="14">
@@ -2748,7 +2982,7 @@
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A99" s="20">
+      <c r="A99" s="18">
         <v>41203</v>
       </c>
       <c r="B99" s="14">
@@ -2756,7 +2990,7 @@
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A100" s="20">
+      <c r="A100" s="18">
         <v>41203</v>
       </c>
       <c r="B100" s="14">
@@ -2764,7 +2998,7 @@
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A101" s="20">
+      <c r="A101" s="18">
         <v>41204</v>
       </c>
       <c r="B101" s="14">
@@ -2772,7 +3006,7 @@
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A102" s="20">
+      <c r="A102" s="18">
         <v>41204</v>
       </c>
       <c r="B102" s="14">
@@ -2780,7 +3014,7 @@
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A103" s="20">
+      <c r="A103" s="18">
         <v>41204</v>
       </c>
       <c r="B103" s="14">
@@ -2788,7 +3022,7 @@
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" s="20">
+      <c r="A104" s="18">
         <v>41205</v>
       </c>
       <c r="B104" s="14">
@@ -2796,13 +3030,13 @@
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A105" s="18" t="s">
+      <c r="A105" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B105" s="19"/>
+      <c r="B105" s="20"/>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A106" s="20">
+      <c r="A106" s="18">
         <v>41301</v>
       </c>
       <c r="B106" s="14">
@@ -2810,13 +3044,13 @@
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A107" s="18" t="s">
+      <c r="A107" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="B107" s="19"/>
+      <c r="B107" s="20"/>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A108" s="20">
+      <c r="A108" s="18">
         <v>42100</v>
       </c>
       <c r="B108" s="14">
@@ -2824,7 +3058,7 @@
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A109" s="20">
+      <c r="A109" s="18">
         <v>42100</v>
       </c>
       <c r="B109" s="14">
@@ -2832,7 +3066,7 @@
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A110" s="20">
+      <c r="A110" s="18">
         <v>42100</v>
       </c>
       <c r="B110" s="14">
@@ -2840,13 +3074,13 @@
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A111" s="18" t="s">
+      <c r="A111" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="B111" s="19"/>
+      <c r="B111" s="20"/>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A112" s="20">
+      <c r="A112" s="18">
         <v>43100</v>
       </c>
       <c r="B112" s="14">
@@ -2854,13 +3088,13 @@
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A113" s="18" t="s">
+      <c r="A113" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B113" s="19"/>
+      <c r="B113" s="20"/>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A114" s="20">
+      <c r="A114" s="18">
         <v>51100</v>
       </c>
       <c r="B114" s="14">
@@ -2868,13 +3102,13 @@
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A115" s="18" t="s">
+      <c r="A115" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="B115" s="19"/>
+      <c r="B115" s="20"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A116" s="20">
+      <c r="A116" s="18">
         <v>51201</v>
       </c>
       <c r="B116" s="14">
@@ -2882,7 +3116,7 @@
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A117" s="20">
+      <c r="A117" s="18">
         <v>51201</v>
       </c>
       <c r="B117" s="14">
@@ -2890,13 +3124,13 @@
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A118" s="18" t="s">
+      <c r="A118" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="19"/>
+      <c r="B118" s="20"/>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A119" s="20">
+      <c r="A119" s="18">
         <v>52100</v>
       </c>
       <c r="B119" s="14">
@@ -2904,13 +3138,13 @@
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A120" s="18" t="s">
+      <c r="A120" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="B120" s="19"/>
+      <c r="B120" s="20"/>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A121" s="20">
+      <c r="A121" s="18">
         <v>91201</v>
       </c>
       <c r="B121" s="14">
@@ -2918,7 +3152,7 @@
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A122" s="20">
+      <c r="A122" s="18">
         <v>91201</v>
       </c>
       <c r="B122" s="14">
@@ -2926,7 +3160,7 @@
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A123" s="20">
+      <c r="A123" s="18">
         <v>91201</v>
       </c>
       <c r="B123" s="14">
@@ -2934,7 +3168,7 @@
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A124" s="20">
+      <c r="A124" s="18">
         <v>91201</v>
       </c>
       <c r="B124" s="14">
@@ -2942,7 +3176,7 @@
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A125" s="20">
+      <c r="A125" s="18">
         <v>91201</v>
       </c>
       <c r="B125" s="14">
@@ -2950,7 +3184,7 @@
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A126" s="20">
+      <c r="A126" s="18">
         <v>91201</v>
       </c>
       <c r="B126" s="14">
@@ -2958,7 +3192,7 @@
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A127" s="20">
+      <c r="A127" s="18">
         <v>91201</v>
       </c>
       <c r="B127" s="14">
@@ -2966,7 +3200,7 @@
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A128" s="20">
+      <c r="A128" s="18">
         <v>91201</v>
       </c>
       <c r="B128" s="14">
@@ -2974,7 +3208,7 @@
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A129" s="20">
+      <c r="A129" s="18">
         <v>91201</v>
       </c>
       <c r="B129" s="14">
@@ -2982,7 +3216,7 @@
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A130" s="20">
+      <c r="A130" s="18">
         <v>91201</v>
       </c>
       <c r="B130" s="14">
@@ -2990,7 +3224,7 @@
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A131" s="20">
+      <c r="A131" s="18">
         <v>91201</v>
       </c>
       <c r="B131" s="14">
@@ -2998,7 +3232,7 @@
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A132" s="20">
+      <c r="A132" s="18">
         <v>91201</v>
       </c>
       <c r="B132" s="14">
@@ -3006,7 +3240,7 @@
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A133" s="20">
+      <c r="A133" s="18">
         <v>91201</v>
       </c>
       <c r="B133" s="14">
@@ -3014,7 +3248,7 @@
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A134" s="20">
+      <c r="A134" s="18">
         <v>91201</v>
       </c>
       <c r="B134" s="14">
@@ -3022,7 +3256,7 @@
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A135" s="20">
+      <c r="A135" s="18">
         <v>91201</v>
       </c>
       <c r="B135" s="14">
@@ -3030,7 +3264,7 @@
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A136" s="20">
+      <c r="A136" s="18">
         <v>91201</v>
       </c>
       <c r="B136" s="14">
@@ -3038,7 +3272,7 @@
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A137" s="20">
+      <c r="A137" s="18">
         <v>91201</v>
       </c>
       <c r="B137" s="14">
@@ -3046,7 +3280,7 @@
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A138" s="20">
+      <c r="A138" s="18">
         <v>91202</v>
       </c>
       <c r="B138" s="14">
@@ -3054,7 +3288,7 @@
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A139" s="20">
+      <c r="A139" s="18">
         <v>91202</v>
       </c>
       <c r="B139" s="14">
@@ -3062,7 +3296,7 @@
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A140" s="20">
+      <c r="A140" s="18">
         <v>91202</v>
       </c>
       <c r="B140" s="14">
@@ -3070,7 +3304,7 @@
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A141" s="20">
+      <c r="A141" s="18">
         <v>91202</v>
       </c>
       <c r="B141" s="14">
@@ -3078,7 +3312,7 @@
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A142" s="20">
+      <c r="A142" s="18">
         <v>91202</v>
       </c>
       <c r="B142" s="14">
@@ -3086,7 +3320,7 @@
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A143" s="20">
+      <c r="A143" s="18">
         <v>91202</v>
       </c>
       <c r="B143" s="14">
@@ -3094,7 +3328,7 @@
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A144" s="20">
+      <c r="A144" s="18">
         <v>91202</v>
       </c>
       <c r="B144" s="14">
@@ -3102,7 +3336,7 @@
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A145" s="20">
+      <c r="A145" s="18">
         <v>91202</v>
       </c>
       <c r="B145" s="14">
@@ -3110,7 +3344,7 @@
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A146" s="20">
+      <c r="A146" s="18">
         <v>91202</v>
       </c>
       <c r="B146" s="14">
@@ -3118,7 +3352,7 @@
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A147" s="20">
+      <c r="A147" s="18">
         <v>91202</v>
       </c>
       <c r="B147" s="14">
@@ -3126,7 +3360,7 @@
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A148" s="20">
+      <c r="A148" s="18">
         <v>91202</v>
       </c>
       <c r="B148" s="14">
@@ -3134,7 +3368,7 @@
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A149" s="20">
+      <c r="A149" s="18">
         <v>91202</v>
       </c>
       <c r="B149" s="14">
@@ -3142,7 +3376,7 @@
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A150" s="20">
+      <c r="A150" s="18">
         <v>91202</v>
       </c>
       <c r="B150" s="14">
@@ -3150,7 +3384,7 @@
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A151" s="20">
+      <c r="A151" s="18">
         <v>91202</v>
       </c>
       <c r="B151" s="14">
@@ -3158,7 +3392,7 @@
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A152" s="20">
+      <c r="A152" s="18">
         <v>91202</v>
       </c>
       <c r="B152" s="14">
@@ -3166,7 +3400,7 @@
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A153" s="20">
+      <c r="A153" s="18">
         <v>91202</v>
       </c>
       <c r="B153" s="14">
@@ -3174,7 +3408,7 @@
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A154" s="20">
+      <c r="A154" s="18">
         <v>91202</v>
       </c>
       <c r="B154" s="14">
@@ -3182,7 +3416,7 @@
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A155" s="20">
+      <c r="A155" s="18">
         <v>91205</v>
       </c>
       <c r="B155" s="14">
@@ -3190,7 +3424,7 @@
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A156" s="20">
+      <c r="A156" s="18">
         <v>91205</v>
       </c>
       <c r="B156" s="14">
@@ -3198,7 +3432,7 @@
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A157" s="20">
+      <c r="A157" s="18">
         <v>91205</v>
       </c>
       <c r="B157" s="14">
@@ -3206,7 +3440,7 @@
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A158" s="20">
+      <c r="A158" s="18">
         <v>91205</v>
       </c>
       <c r="B158" s="14">
@@ -3214,7 +3448,7 @@
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A159" s="20">
+      <c r="A159" s="18">
         <v>91205</v>
       </c>
       <c r="B159" s="14">
@@ -3222,7 +3456,7 @@
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A160" s="20">
+      <c r="A160" s="18">
         <v>91205</v>
       </c>
       <c r="B160" s="14">
@@ -3231,13 +3465,24 @@
     </row>
   </sheetData>
   <mergeCells count="33">
-    <mergeCell ref="A120:B120"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A115:B115"/>
-    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A40:B40"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A62:B62"/>
     <mergeCell ref="A87:B87"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A96:B96"/>
@@ -3246,24 +3491,1588 @@
     <mergeCell ref="A74:B74"/>
     <mergeCell ref="A77:B77"/>
     <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A115:B115"/>
+    <mergeCell ref="A118:B118"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D136"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B121" sqref="B121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="25">
+        <v>204</v>
+      </c>
+      <c r="D3" s="23"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="21"/>
+      <c r="B4" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C4" s="25">
+        <v>232</v>
+      </c>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" s="25">
+        <v>33</v>
+      </c>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="21"/>
+      <c r="B6" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="25">
+        <v>37</v>
+      </c>
+      <c r="D6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="25">
+        <v>17</v>
+      </c>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="25">
+        <v>6</v>
+      </c>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="25">
+        <v>146</v>
+      </c>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="25">
+        <v>304</v>
+      </c>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="25">
+        <v>34</v>
+      </c>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="21"/>
+      <c r="B12" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="25">
+        <v>47</v>
+      </c>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C13" s="25">
+        <v>84</v>
+      </c>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="21"/>
+      <c r="B14" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C14" s="25">
+        <v>243</v>
+      </c>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="25">
+        <v>170</v>
+      </c>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="21"/>
+      <c r="B16" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" s="25">
+        <v>455</v>
+      </c>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="25">
+        <v>45</v>
+      </c>
+      <c r="D17" s="23"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="21"/>
+      <c r="B18" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="25">
+        <v>97</v>
+      </c>
+      <c r="D18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C19" s="25">
+        <v>15</v>
+      </c>
+      <c r="D19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="21"/>
+      <c r="B20" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="25">
+        <v>16</v>
+      </c>
+      <c r="D20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C21" s="25">
+        <v>139</v>
+      </c>
+      <c r="D21" s="23"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="21"/>
+      <c r="B22" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="25">
+        <v>313</v>
+      </c>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="25">
+        <v>21</v>
+      </c>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="21"/>
+      <c r="B24" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="25">
+        <v>55</v>
+      </c>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C25" s="25">
+        <v>7</v>
+      </c>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="21"/>
+      <c r="B26" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C26" s="25">
+        <v>5</v>
+      </c>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="25">
+        <v>72</v>
+      </c>
+      <c r="D27" s="23"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="29"/>
+      <c r="B28" s="30" t="s">
+        <v>154</v>
+      </c>
+      <c r="C28" s="31">
+        <v>267</v>
+      </c>
+      <c r="D28" s="32"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>155</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="35"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C30" s="25">
+        <v>435</v>
+      </c>
+      <c r="D30" s="23"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="21"/>
+      <c r="B31" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C31" s="25">
+        <v>79</v>
+      </c>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="25">
+        <v>818</v>
+      </c>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="21"/>
+      <c r="B33" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C33" s="25">
+        <v>248</v>
+      </c>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="25">
+        <v>51</v>
+      </c>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="21"/>
+      <c r="B35" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="25">
+        <v>5</v>
+      </c>
+      <c r="D35" s="23"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" s="25">
+        <v>11</v>
+      </c>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="21"/>
+      <c r="B37" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C37" s="25">
+        <v>1</v>
+      </c>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="25">
+        <v>339</v>
+      </c>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C39" s="25">
+        <v>116</v>
+      </c>
+      <c r="D39" s="23"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="25">
+        <v>985</v>
+      </c>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="21"/>
+      <c r="B41" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C41" s="25">
+        <v>145</v>
+      </c>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="25">
+        <v>184</v>
+      </c>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="21"/>
+      <c r="B43" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C43" s="25">
+        <v>66</v>
+      </c>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="25">
+        <v>83</v>
+      </c>
+      <c r="D44" s="23"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="21"/>
+      <c r="B45" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="25">
+        <v>27</v>
+      </c>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="25">
+        <v>107</v>
+      </c>
+      <c r="D46" s="23"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="21"/>
+      <c r="B47" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C47" s="25">
+        <v>180</v>
+      </c>
+      <c r="D47" s="23"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="25">
+        <v>413</v>
+      </c>
+      <c r="D48" s="23"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="21"/>
+      <c r="B49" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C49" s="25">
+        <v>358</v>
+      </c>
+      <c r="D49" s="23"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="25">
+        <v>20</v>
+      </c>
+      <c r="D50" s="23"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="21"/>
+      <c r="B51" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="25">
+        <v>30</v>
+      </c>
+      <c r="D51" s="23"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B52" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="25">
+        <v>16</v>
+      </c>
+      <c r="D52" s="23"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="21"/>
+      <c r="B53" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="25">
+        <v>9</v>
+      </c>
+      <c r="D53" s="23"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="25">
+        <v>144</v>
+      </c>
+      <c r="D54" s="23"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="21"/>
+      <c r="B55" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="25">
+        <v>96</v>
+      </c>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="B56" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" s="25">
+        <v>416</v>
+      </c>
+      <c r="D56" s="23"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="21"/>
+      <c r="B57" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C57" s="25">
+        <v>213</v>
+      </c>
+      <c r="D57" s="23"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="25">
+        <v>15</v>
+      </c>
+      <c r="D58" s="23"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="21"/>
+      <c r="B59" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C59" s="25">
+        <v>21</v>
+      </c>
+      <c r="D59" s="23"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C60" s="25">
+        <v>338</v>
+      </c>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="21"/>
+      <c r="B61" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="25">
+        <v>327</v>
+      </c>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C62" s="25">
+        <v>41</v>
+      </c>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="21"/>
+      <c r="B63" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C63" s="25">
+        <v>42</v>
+      </c>
+      <c r="D63" s="23"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="B64" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C64" s="25">
+        <v>21</v>
+      </c>
+      <c r="D64" s="23"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="21"/>
+      <c r="B65" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C65" s="25">
+        <v>9</v>
+      </c>
+      <c r="D65" s="23"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B66" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C66" s="25">
+        <v>16</v>
+      </c>
+      <c r="D66" s="23"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="21"/>
+      <c r="B67" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C67" s="25">
+        <v>15</v>
+      </c>
+      <c r="D67" s="23"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C68" s="25">
+        <v>454</v>
+      </c>
+      <c r="D68" s="23"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="21"/>
+      <c r="B69" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C69" s="25">
+        <v>103</v>
+      </c>
+      <c r="D69" s="23"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C70" s="25">
+        <v>14</v>
+      </c>
+      <c r="D70" s="23"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="21"/>
+      <c r="B71" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C71" s="25">
+        <v>7</v>
+      </c>
+      <c r="D71" s="23"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C72" s="25">
+        <v>62</v>
+      </c>
+      <c r="D72" s="23"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="21"/>
+      <c r="B73" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="25">
+        <v>129</v>
+      </c>
+      <c r="D73" s="23"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C74" s="25">
+        <v>106</v>
+      </c>
+      <c r="D74" s="23"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="21"/>
+      <c r="B75" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="25">
+        <v>39</v>
+      </c>
+      <c r="D75" s="23"/>
+    </row>
+    <row r="76" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="35"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77" s="25">
+        <v>284</v>
+      </c>
+      <c r="D77" s="23"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="21"/>
+      <c r="B78" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C78" s="25">
+        <v>182</v>
+      </c>
+      <c r="D78" s="23"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="B79" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C79" s="25">
+        <v>194</v>
+      </c>
+      <c r="D79" s="23"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="21"/>
+      <c r="B80" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C80" s="25">
+        <v>116</v>
+      </c>
+      <c r="D80" s="23"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="25">
+        <v>678</v>
+      </c>
+      <c r="D81" s="23"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="21"/>
+      <c r="B82" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C82" s="25">
+        <v>274</v>
+      </c>
+      <c r="D82" s="23"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B83" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C83" s="25">
+        <v>94</v>
+      </c>
+      <c r="D83" s="23"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="21"/>
+      <c r="B84" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C84" s="25">
+        <v>72</v>
+      </c>
+      <c r="D84" s="23"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B85" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="25">
+        <v>33</v>
+      </c>
+      <c r="D85" s="23"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="21"/>
+      <c r="B86" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C86" s="25">
+        <v>17</v>
+      </c>
+      <c r="D86" s="23"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B87" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C87" s="25">
+        <f>180+9</f>
+        <v>189</v>
+      </c>
+      <c r="D87" s="23"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="21"/>
+      <c r="B88" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C88" s="25">
+        <f>259+3</f>
+        <v>262</v>
+      </c>
+      <c r="D88" s="23"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="25">
+        <v>50</v>
+      </c>
+      <c r="D89" s="23"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="21"/>
+      <c r="B90" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="25">
+        <v>56</v>
+      </c>
+      <c r="D90" s="23"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C91" s="25">
+        <v>11</v>
+      </c>
+      <c r="D91" s="23"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="21"/>
+      <c r="B92" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C92" s="25">
+        <v>9</v>
+      </c>
+      <c r="D92" s="23"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B93" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C93" s="25">
+        <v>163</v>
+      </c>
+      <c r="D93" s="23"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="21"/>
+      <c r="B94" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C94" s="25">
+        <v>300</v>
+      </c>
+      <c r="D94" s="23"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="B95" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C95" s="25">
+        <v>45</v>
+      </c>
+      <c r="D95" s="23"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="21"/>
+      <c r="B96" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C96" s="25">
+        <v>43</v>
+      </c>
+      <c r="D96" s="23"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B97" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C97" s="25">
+        <v>8</v>
+      </c>
+      <c r="D97" s="23"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="21"/>
+      <c r="B98" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C98" s="25">
+        <v>11</v>
+      </c>
+      <c r="D98" s="23"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B99" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C99" s="25">
+        <v>350</v>
+      </c>
+      <c r="D99" s="23"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="21"/>
+      <c r="B100" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C100" s="25">
+        <v>369</v>
+      </c>
+      <c r="D100" s="23"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C101" s="25">
+        <v>213</v>
+      </c>
+      <c r="D101" s="23"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="21"/>
+      <c r="B102" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C102" s="25">
+        <v>166</v>
+      </c>
+      <c r="D102" s="23"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B103" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C103" s="25">
+        <v>26</v>
+      </c>
+      <c r="D103" s="23"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="21"/>
+      <c r="B104" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C104" s="25">
+        <v>14</v>
+      </c>
+      <c r="D104" s="23"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="B105" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C105" s="25">
+        <v>175</v>
+      </c>
+      <c r="D105" s="23"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="21"/>
+      <c r="B106" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C106" s="25">
+        <v>233</v>
+      </c>
+      <c r="D106" s="23"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="B107" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C107" s="25">
+        <v>142</v>
+      </c>
+      <c r="D107" s="23"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="21"/>
+      <c r="B108" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C108" s="25">
+        <v>53</v>
+      </c>
+      <c r="D108" s="23"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="25">
+        <v>49</v>
+      </c>
+      <c r="D109" s="23"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="21"/>
+      <c r="B110" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" s="25">
+        <v>121</v>
+      </c>
+      <c r="D110" s="23"/>
+    </row>
+    <row r="111" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A111" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B111" s="34"/>
+      <c r="C111" s="34"/>
+      <c r="D111" s="35"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C112" s="25">
+        <v>442</v>
+      </c>
+      <c r="D112" s="23"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="21"/>
+      <c r="B113" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C113" s="25">
+        <v>53</v>
+      </c>
+      <c r="D113" s="23"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B114" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C114" s="25">
+        <v>62</v>
+      </c>
+      <c r="D114" s="23"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="21"/>
+      <c r="B115" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="25">
+        <v>22</v>
+      </c>
+      <c r="D115" s="23"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B116" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="25">
+        <v>14</v>
+      </c>
+      <c r="D116" s="23"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="21"/>
+      <c r="B117" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C117" s="25">
+        <v>6</v>
+      </c>
+      <c r="D117" s="23"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B118" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C118" s="25">
+        <v>653</v>
+      </c>
+      <c r="D118" s="23"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="21"/>
+      <c r="B119" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C119" s="25">
+        <v>100</v>
+      </c>
+      <c r="D119" s="23"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B120" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C120" s="25">
+        <v>482</v>
+      </c>
+      <c r="D120" s="23"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="21"/>
+      <c r="B121" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C121" s="25">
+        <v>146</v>
+      </c>
+      <c r="D121" s="23"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="B122" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C122" s="25">
+        <v>139</v>
+      </c>
+      <c r="D122" s="23"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="21"/>
+      <c r="B123" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C123" s="25">
+        <v>90</v>
+      </c>
+      <c r="D123" s="23"/>
+    </row>
+    <row r="124" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A124" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B124" s="34"/>
+      <c r="C124" s="34"/>
+      <c r="D124" s="35"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="B125" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C125" s="25">
+        <v>662</v>
+      </c>
+      <c r="D125" s="23"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="21"/>
+      <c r="B126" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="25">
+        <v>184</v>
+      </c>
+      <c r="D126" s="23"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="B127" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C127" s="25">
+        <v>162</v>
+      </c>
+      <c r="D127" s="23"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="21"/>
+      <c r="B128" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C128" s="25">
+        <v>58</v>
+      </c>
+      <c r="D128" s="23"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="B129" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C129" s="25">
+        <v>19</v>
+      </c>
+      <c r="D129" s="23"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="21"/>
+      <c r="B130" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C130" s="25">
+        <v>9</v>
+      </c>
+      <c r="D130" s="23"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B131" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C131" s="25">
+        <v>490</v>
+      </c>
+      <c r="D131" s="23"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="21"/>
+      <c r="B132" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C132" s="25">
+        <v>292</v>
+      </c>
+      <c r="D132" s="23"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="B133" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C133" s="25">
+        <v>30</v>
+      </c>
+      <c r="D133" s="23"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="21"/>
+      <c r="B134" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C134" s="25">
+        <v>14</v>
+      </c>
+      <c r="D134" s="23"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="B135" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C135" s="25">
+        <v>283</v>
+      </c>
+      <c r="D135" s="23"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="21"/>
+      <c r="B136" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="C136" s="25">
+        <v>68</v>
+      </c>
+      <c r="D136" s="23"/>
+    </row>
+  </sheetData>
+  <mergeCells count="65">
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="A118:A119"/>
+    <mergeCell ref="A120:A121"/>
+    <mergeCell ref="A122:A123"/>
+    <mergeCell ref="A125:A126"/>
+    <mergeCell ref="A127:A128"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A112:A113"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A72:A73"/>
+    <mergeCell ref="A74:A75"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
